--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\proyectos-desarrollo\Binariah\phone-checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CB57D7-D86B-4E5D-91C6-5769297A3799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C02CBD-061B-4A2F-BD89-9E55D9ACE71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
